--- a/biology/Botanique/Chêne_du_Liban/Chêne_du_Liban.xlsx
+++ b/biology/Botanique/Chêne_du_Liban/Chêne_du_Liban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_du_Liban</t>
+          <t>Chêne_du_Liban</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus libani
 Le chêne du Liban (Quercus libani) est un arbre monoïque de la famille des Fagacées originaire d'Asie mineure (Syrie). Il est peu répandu en dehors de cette zone et des arboretum où il a été importé, en France, en 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_du_Liban</t>
+          <t>Chêne_du_Liban</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne du Liban a un port arrondi et peut atteindre une hauteur de 10 mètres.
 Il est rustique jusqu'en zone USDA 6.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_du_Liban</t>
+          <t>Chêne_du_Liban</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne du Liban supporte tous types de sols (acide, neutre ou alcalin).
 Les glands perdent rapidement leur pouvoir germinatif. Mieux vaut les semer dès leur maturité à leur emplacement définitif car l'espèce supporte mal les transplantations. Ils peuvent ne germer que la deuxième année.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_du_Liban</t>
+          <t>Chêne_du_Liban</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses glands permettent de fabriquer une farine comestible, et torréfiés, un café de substitution.
 Un mulch de ses feuilles écarte les vers et les limaces mais on ne doit pas utiliser les jeunes feuilles car elles ont un effet inhibiteur sur la croissance des plantes (allélopathie).
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_du_Liban</t>
+          <t>Chêne_du_Liban</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est évoquée dans le Livre d'Osée :
 Os 14:6 - je serai comme la rosée pour Israël, il fleurira comme le lis, il enfoncera ses racines comme le chêne du Liban ;
